--- a/examples/sources/data/unsolved/scheduled/2018-11-28.xlsx
+++ b/examples/sources/data/unsolved/scheduled/2018-11-28.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Reitano\Documents\GitHub\optaplanner-time\examples\sources\data\unsolved\scheduled\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DAB87-0F79-4815-80D8-F6F97D7ECD27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audiencias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="155">
   <si>
     <t>Id</t>
   </si>
@@ -79,9 +85,6 @@
     <t>02:00</t>
   </si>
   <si>
-    <t>02:45</t>
-  </si>
-  <si>
     <t>Manzur Rafael (6ta)</t>
   </si>
   <si>
@@ -328,9 +331,6 @@
     <t xml:space="preserve">  Defensor Particular - PABLO ALONSO</t>
   </si>
   <si>
-    <t xml:space="preserve">  Defensor Particular - DR. MARCELO CANALE</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Defensor Particular - Carlos REIG</t>
   </si>
   <si>
@@ -485,19 +485,16 @@
   </si>
   <si>
     <t>15:30</t>
-  </si>
-  <si>
-    <t>16:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +558,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -607,7 +612,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,9 +644,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,6 +696,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,14 +889,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:XFD153"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>97211</v>
       </c>
@@ -907,7 +954,7 @@
         <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>1210</v>
@@ -922,10 +969,10 @@
         <v>43445</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>97212</v>
       </c>
@@ -942,7 +989,7 @@
         <v>393</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>387</v>
@@ -957,10 +1004,10 @@
         <v>43441</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>97213</v>
       </c>
@@ -977,7 +1024,7 @@
         <v>795</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>529</v>
@@ -992,10 +1039,10 @@
         <v>43446</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>97214</v>
       </c>
@@ -1012,7 +1059,7 @@
         <v>323</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>379</v>
@@ -1027,10 +1074,10 @@
         <v>43521</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>97215</v>
       </c>
@@ -1047,7 +1094,7 @@
         <v>795</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>529</v>
@@ -1062,10 +1109,10 @@
         <v>43446</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>97216</v>
       </c>
@@ -1082,7 +1129,7 @@
         <v>795</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>529</v>
@@ -1097,10 +1144,10 @@
         <v>43446</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>97217</v>
       </c>
@@ -1117,7 +1164,7 @@
         <v>795</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>529</v>
@@ -1132,10 +1179,10 @@
         <v>43446</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>97218</v>
       </c>
@@ -1152,7 +1199,7 @@
         <v>410</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>1086</v>
@@ -1167,10 +1214,10 @@
         <v>43502</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>97219</v>
       </c>
@@ -1187,7 +1234,7 @@
         <v>323</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>377</v>
@@ -1202,10 +1249,10 @@
         <v>43437</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>97220</v>
       </c>
@@ -1222,7 +1269,7 @@
         <v>665</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>1317</v>
@@ -1237,10 +1284,10 @@
         <v>43507</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>97221</v>
       </c>
@@ -1257,7 +1304,7 @@
         <v>804</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>832</v>
@@ -1272,10 +1319,10 @@
         <v>43455</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>97222</v>
       </c>
@@ -1292,7 +1339,7 @@
         <v>795</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>502</v>
@@ -1307,10 +1354,10 @@
         <v>43444</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>97223</v>
       </c>
@@ -1327,7 +1374,7 @@
         <v>362</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>450</v>
@@ -1342,10 +1389,10 @@
         <v>43441</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>97224</v>
       </c>
@@ -1362,7 +1409,7 @@
         <v>402</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>379</v>
@@ -1377,10 +1424,10 @@
         <v>43523</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>97225</v>
       </c>
@@ -1397,7 +1444,7 @@
         <v>323</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>701</v>
@@ -1412,10 +1459,10 @@
         <v>43444</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>97226</v>
       </c>
@@ -1432,7 +1479,7 @@
         <v>803</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>832</v>
@@ -1447,10 +1494,10 @@
         <v>43453</v>
       </c>
       <c r="K17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>97227</v>
       </c>
@@ -1467,7 +1514,7 @@
         <v>804</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>502</v>
@@ -1482,10 +1529,10 @@
         <v>43454</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>97228</v>
       </c>
@@ -1502,7 +1549,7 @@
         <v>323</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>876</v>
@@ -1517,10 +1564,10 @@
         <v>43455</v>
       </c>
       <c r="K19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>97229</v>
       </c>
@@ -1537,7 +1584,7 @@
         <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>701</v>
@@ -1552,10 +1599,10 @@
         <v>43549</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>97230</v>
       </c>
@@ -1572,7 +1619,7 @@
         <v>553</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>489</v>
@@ -1587,10 +1634,10 @@
         <v>43455</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>97231</v>
       </c>
@@ -1607,7 +1654,7 @@
         <v>396</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>335</v>
@@ -1622,10 +1669,10 @@
         <v>43452</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>97232</v>
       </c>
@@ -1642,7 +1689,7 @@
         <v>553</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>379</v>
@@ -1657,10 +1704,10 @@
         <v>43507</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>97233</v>
       </c>
@@ -1677,7 +1724,7 @@
         <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>701</v>
@@ -1692,10 +1739,10 @@
         <v>43551</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>97234</v>
       </c>
@@ -1712,7 +1759,7 @@
         <v>323</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>379</v>
@@ -1727,10 +1774,10 @@
         <v>43502</v>
       </c>
       <c r="K25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>97235</v>
       </c>
@@ -1747,7 +1794,7 @@
         <v>393</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>388</v>
@@ -1762,10 +1809,10 @@
         <v>43438</v>
       </c>
       <c r="K26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>97236</v>
       </c>
@@ -1782,7 +1829,7 @@
         <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>701</v>
@@ -1797,10 +1844,10 @@
         <v>43551</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>97237</v>
       </c>
@@ -1817,7 +1864,7 @@
         <v>323</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>701</v>
@@ -1832,10 +1879,10 @@
         <v>43545</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>97238</v>
       </c>
@@ -1852,7 +1899,7 @@
         <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>876</v>
@@ -1867,10 +1914,10 @@
         <v>43455</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>97239</v>
       </c>
@@ -1887,7 +1934,7 @@
         <v>323</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>470</v>
@@ -1902,10 +1949,10 @@
         <v>43445</v>
       </c>
       <c r="K30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>97240</v>
       </c>
@@ -1922,7 +1969,7 @@
         <v>557</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>355</v>
@@ -1937,10 +1984,10 @@
         <v>43447</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>97241</v>
       </c>
@@ -1957,7 +2004,7 @@
         <v>323</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>697</v>
@@ -1972,10 +2019,10 @@
         <v>43525</v>
       </c>
       <c r="K32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>97242</v>
       </c>
@@ -1992,7 +2039,7 @@
         <v>323</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>842</v>
@@ -2007,10 +2054,10 @@
         <v>43437</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>97243</v>
       </c>
@@ -2027,7 +2074,7 @@
         <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>380</v>
@@ -2042,10 +2089,10 @@
         <v>43445</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>97244</v>
       </c>
@@ -2062,7 +2109,7 @@
         <v>397</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>388</v>
@@ -2077,10 +2124,10 @@
         <v>43523</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>97245</v>
       </c>
@@ -2097,7 +2144,7 @@
         <v>396</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>379</v>
@@ -2112,10 +2159,10 @@
         <v>43497</v>
       </c>
       <c r="K36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>97246</v>
       </c>
@@ -2132,7 +2179,7 @@
         <v>323</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>379</v>
@@ -2147,10 +2194,10 @@
         <v>43448</v>
       </c>
       <c r="K37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>97247</v>
       </c>
@@ -2167,7 +2214,7 @@
         <v>323</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <v>648</v>
@@ -2182,10 +2229,10 @@
         <v>43551</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>97248</v>
       </c>
@@ -2202,7 +2249,7 @@
         <v>323</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>379</v>
@@ -2217,10 +2264,10 @@
         <v>43523</v>
       </c>
       <c r="K39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>97249</v>
       </c>
@@ -2237,7 +2284,7 @@
         <v>394</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>704</v>
@@ -2252,10 +2299,10 @@
         <v>43525</v>
       </c>
       <c r="K40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>97250</v>
       </c>
@@ -2272,7 +2319,7 @@
         <v>323</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>1316</v>
@@ -2287,10 +2334,10 @@
         <v>43433</v>
       </c>
       <c r="K41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>97251</v>
       </c>
@@ -2307,7 +2354,7 @@
         <v>1078</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42">
         <v>383</v>
@@ -2322,10 +2369,10 @@
         <v>43507</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>97252</v>
       </c>
@@ -2342,7 +2389,7 @@
         <v>663</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43">
         <v>643</v>
@@ -2357,10 +2404,10 @@
         <v>43440</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>97253</v>
       </c>
@@ -2377,7 +2424,7 @@
         <v>561</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44">
         <v>379</v>
@@ -2392,10 +2439,10 @@
         <v>43544</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>97254</v>
       </c>
@@ -2412,7 +2459,7 @@
         <v>557</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>705</v>
@@ -2427,10 +2474,10 @@
         <v>43439</v>
       </c>
       <c r="K45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>97255</v>
       </c>
@@ -2447,7 +2494,7 @@
         <v>323</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46">
         <v>1088</v>
@@ -2462,10 +2509,10 @@
         <v>43531</v>
       </c>
       <c r="K46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>97256</v>
       </c>
@@ -2482,7 +2529,7 @@
         <v>360</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47">
         <v>704</v>
@@ -2497,10 +2544,10 @@
         <v>43524</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>97257</v>
       </c>
@@ -2517,7 +2564,7 @@
         <v>323</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48">
         <v>653</v>
@@ -2532,10 +2579,10 @@
         <v>43433</v>
       </c>
       <c r="K48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>97258</v>
       </c>
@@ -2552,7 +2599,7 @@
         <v>323</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49">
         <v>643</v>
@@ -2567,10 +2614,10 @@
         <v>43440</v>
       </c>
       <c r="K49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>97259</v>
       </c>
@@ -2587,7 +2634,7 @@
         <v>664</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50">
         <v>1316</v>
@@ -2602,10 +2649,10 @@
         <v>43433</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>97260</v>
       </c>
@@ -2622,7 +2669,7 @@
         <v>323</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51">
         <v>381</v>
@@ -2637,10 +2684,10 @@
         <v>43522</v>
       </c>
       <c r="K51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>97262</v>
       </c>
@@ -2657,7 +2704,7 @@
         <v>664</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G52">
         <v>643</v>
@@ -2672,10 +2719,10 @@
         <v>43440</v>
       </c>
       <c r="K52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>97263</v>
       </c>
@@ -2692,7 +2739,7 @@
         <v>323</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53">
         <v>732</v>
@@ -2707,10 +2754,10 @@
         <v>43509</v>
       </c>
       <c r="K53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>97264</v>
       </c>
@@ -2727,7 +2774,7 @@
         <v>664</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G54">
         <v>643</v>
@@ -2742,10 +2789,10 @@
         <v>43440</v>
       </c>
       <c r="K54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>97265</v>
       </c>
@@ -2762,7 +2809,7 @@
         <v>368</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55">
         <v>1086</v>
@@ -2777,10 +2824,10 @@
         <v>43530</v>
       </c>
       <c r="K55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>97266</v>
       </c>
@@ -2797,7 +2844,7 @@
         <v>665</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G56">
         <v>1316</v>
@@ -2812,10 +2859,10 @@
         <v>43433</v>
       </c>
       <c r="K56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>97267</v>
       </c>
@@ -2832,7 +2879,7 @@
         <v>407</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57">
         <v>876</v>
@@ -2847,10 +2894,10 @@
         <v>43525</v>
       </c>
       <c r="K57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>97268</v>
       </c>
@@ -2867,7 +2914,7 @@
         <v>803</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>491</v>
@@ -2882,10 +2929,10 @@
         <v>43432</v>
       </c>
       <c r="K58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>97269</v>
       </c>
@@ -2902,7 +2949,7 @@
         <v>323</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59">
         <v>1179</v>
@@ -2917,10 +2964,10 @@
         <v>43438</v>
       </c>
       <c r="K59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>97270</v>
       </c>
@@ -2937,7 +2984,7 @@
         <v>327</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60">
         <v>874</v>
@@ -2952,10 +2999,10 @@
         <v>43524</v>
       </c>
       <c r="K60" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>97271</v>
       </c>
@@ -2972,7 +3019,7 @@
         <v>323</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61">
         <v>645</v>
@@ -2987,10 +3034,10 @@
         <v>43445</v>
       </c>
       <c r="K61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>97273</v>
       </c>
@@ -3007,7 +3054,7 @@
         <v>691</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62">
         <v>1179</v>
@@ -3022,10 +3069,10 @@
         <v>43437</v>
       </c>
       <c r="K62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>97274</v>
       </c>
@@ -3042,7 +3089,7 @@
         <v>664</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G63">
         <v>647</v>
@@ -3057,10 +3104,10 @@
         <v>43462</v>
       </c>
       <c r="K63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>97275</v>
       </c>
@@ -3077,7 +3124,7 @@
         <v>663</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G64">
         <v>648</v>
@@ -3092,10 +3139,10 @@
         <v>43581</v>
       </c>
       <c r="K64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>97276</v>
       </c>
@@ -3112,7 +3159,7 @@
         <v>393</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G65">
         <v>388</v>
@@ -3127,10 +3174,10 @@
         <v>43440</v>
       </c>
       <c r="K65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>97277</v>
       </c>
@@ -3147,7 +3194,7 @@
         <v>664</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G66">
         <v>1316</v>
@@ -3162,10 +3209,10 @@
         <v>43462</v>
       </c>
       <c r="K66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>97280</v>
       </c>
@@ -3182,7 +3229,7 @@
         <v>323</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G67">
         <v>872</v>
@@ -3197,10 +3244,10 @@
         <v>43445</v>
       </c>
       <c r="K67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>97281</v>
       </c>
@@ -3217,7 +3264,7 @@
         <v>323</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G68">
         <v>842</v>
@@ -3232,10 +3279,10 @@
         <v>43434</v>
       </c>
       <c r="K68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>97282</v>
       </c>
@@ -3252,7 +3299,7 @@
         <v>323</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G69">
         <v>502</v>
@@ -3267,10 +3314,10 @@
         <v>43454</v>
       </c>
       <c r="K69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>97283</v>
       </c>
@@ -3287,7 +3334,7 @@
         <v>323</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G70">
         <v>708</v>
@@ -3302,10 +3349,10 @@
         <v>43441</v>
       </c>
       <c r="K70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>97284</v>
       </c>
@@ -3322,7 +3369,7 @@
         <v>323</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G71">
         <v>648</v>
@@ -3337,10 +3384,10 @@
         <v>43584</v>
       </c>
       <c r="K71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>97285</v>
       </c>
@@ -3357,7 +3404,7 @@
         <v>689</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G72">
         <v>1180</v>
@@ -3372,10 +3419,10 @@
         <v>43439</v>
       </c>
       <c r="K72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>97286</v>
       </c>
@@ -3392,7 +3439,7 @@
         <v>690</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G73">
         <v>849</v>
@@ -3407,10 +3454,10 @@
         <v>43441</v>
       </c>
       <c r="K73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>97287</v>
       </c>
@@ -3427,7 +3474,7 @@
         <v>323</v>
       </c>
       <c r="F74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G74">
         <v>1179</v>
@@ -3442,10 +3489,10 @@
         <v>43444</v>
       </c>
       <c r="K74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>97288</v>
       </c>
@@ -3462,7 +3509,7 @@
         <v>323</v>
       </c>
       <c r="F75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G75">
         <v>645</v>
@@ -3477,10 +3524,10 @@
         <v>43507</v>
       </c>
       <c r="K75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>97289</v>
       </c>
@@ -3497,7 +3544,7 @@
         <v>804</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G76">
         <v>835</v>
@@ -3512,10 +3559,10 @@
         <v>43445</v>
       </c>
       <c r="K76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>97290</v>
       </c>
@@ -3532,7 +3579,7 @@
         <v>1144</v>
       </c>
       <c r="F77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77">
         <v>1098</v>
@@ -3547,10 +3594,10 @@
         <v>43439</v>
       </c>
       <c r="K77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>97291</v>
       </c>
@@ -3567,7 +3614,7 @@
         <v>323</v>
       </c>
       <c r="F78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G78">
         <v>643</v>
@@ -3582,10 +3629,10 @@
         <v>43434</v>
       </c>
       <c r="K78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>97292</v>
       </c>
@@ -3602,7 +3649,7 @@
         <v>668</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79">
         <v>1231</v>
@@ -3617,10 +3664,10 @@
         <v>43434</v>
       </c>
       <c r="K79" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>97293</v>
       </c>
@@ -3637,7 +3684,7 @@
         <v>323</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G80">
         <v>516</v>
@@ -3652,10 +3699,10 @@
         <v>43508</v>
       </c>
       <c r="K80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>97294</v>
       </c>
@@ -3672,7 +3719,7 @@
         <v>665</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G81">
         <v>1317</v>
@@ -3687,10 +3734,10 @@
         <v>43510</v>
       </c>
       <c r="K81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>97295</v>
       </c>
@@ -3707,7 +3754,7 @@
         <v>323</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82">
         <v>825</v>
@@ -3722,10 +3769,10 @@
         <v>43438</v>
       </c>
       <c r="K82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>97296</v>
       </c>
@@ -3742,7 +3789,7 @@
         <v>575</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G83">
         <v>516</v>
@@ -3757,10 +3804,10 @@
         <v>43501</v>
       </c>
       <c r="K83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>97297</v>
       </c>
@@ -3777,7 +3824,7 @@
         <v>323</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84">
         <v>384</v>
@@ -3792,10 +3839,10 @@
         <v>43440</v>
       </c>
       <c r="K84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>97298</v>
       </c>
@@ -3812,7 +3859,7 @@
         <v>795</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G85">
         <v>825</v>
@@ -3827,10 +3874,10 @@
         <v>43438</v>
       </c>
       <c r="K85" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>97299</v>
       </c>
@@ -3847,7 +3894,7 @@
         <v>804</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86">
         <v>833</v>
@@ -3862,10 +3909,10 @@
         <v>43488</v>
       </c>
       <c r="K86" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>97300</v>
       </c>
@@ -3882,7 +3929,7 @@
         <v>323</v>
       </c>
       <c r="F87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G87">
         <v>358</v>
@@ -3897,10 +3944,10 @@
         <v>43444</v>
       </c>
       <c r="K87" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>97301</v>
       </c>
@@ -3917,7 +3964,7 @@
         <v>795</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G88">
         <v>550</v>
@@ -3932,10 +3979,10 @@
         <v>43501</v>
       </c>
       <c r="K88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>97302</v>
       </c>
@@ -3952,7 +3999,7 @@
         <v>323</v>
       </c>
       <c r="F89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89">
         <v>703</v>
@@ -3967,10 +4014,10 @@
         <v>43434</v>
       </c>
       <c r="K89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>97303</v>
       </c>
@@ -3987,7 +4034,7 @@
         <v>1144</v>
       </c>
       <c r="F90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G90">
         <v>1098</v>
@@ -4002,10 +4049,10 @@
         <v>43446</v>
       </c>
       <c r="K90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>97304</v>
       </c>
@@ -4022,7 +4069,7 @@
         <v>323</v>
       </c>
       <c r="F91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G91">
         <v>646</v>
@@ -4037,10 +4084,10 @@
         <v>43440</v>
       </c>
       <c r="K91" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>97305</v>
       </c>
@@ -4057,7 +4104,7 @@
         <v>663</v>
       </c>
       <c r="F92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G92">
         <v>647</v>
@@ -4072,10 +4119,10 @@
         <v>43537</v>
       </c>
       <c r="K92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>97306</v>
       </c>
@@ -4092,7 +4139,7 @@
         <v>323</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G93">
         <v>377</v>
@@ -4107,10 +4154,10 @@
         <v>43447</v>
       </c>
       <c r="K93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>97307</v>
       </c>
@@ -4127,7 +4174,7 @@
         <v>802</v>
       </c>
       <c r="F94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G94">
         <v>502</v>
@@ -4142,10 +4189,10 @@
         <v>43462</v>
       </c>
       <c r="K94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>97308</v>
       </c>
@@ -4162,7 +4209,7 @@
         <v>327</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G95">
         <v>388</v>
@@ -4177,10 +4224,10 @@
         <v>43441</v>
       </c>
       <c r="K95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>97309</v>
       </c>
@@ -4197,7 +4244,7 @@
         <v>391</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G96">
         <v>876</v>
@@ -4212,10 +4259,10 @@
         <v>43434</v>
       </c>
       <c r="K96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97310</v>
       </c>
@@ -4232,7 +4279,7 @@
         <v>690</v>
       </c>
       <c r="F97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G97">
         <v>849</v>
@@ -4247,10 +4294,10 @@
         <v>43439</v>
       </c>
       <c r="K97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97311</v>
       </c>
@@ -4267,7 +4314,7 @@
         <v>561</v>
       </c>
       <c r="F98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G98">
         <v>703</v>
@@ -4282,10 +4329,10 @@
         <v>43454</v>
       </c>
       <c r="K98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97313</v>
       </c>
@@ -4302,7 +4349,7 @@
         <v>323</v>
       </c>
       <c r="F99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99">
         <v>1088</v>
@@ -4317,10 +4364,10 @@
         <v>43440</v>
       </c>
       <c r="K99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>97314</v>
       </c>
@@ -4337,7 +4384,7 @@
         <v>689</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G100">
         <v>1179</v>
@@ -4352,10 +4399,10 @@
         <v>43437</v>
       </c>
       <c r="K100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>97315</v>
       </c>
@@ -4372,7 +4419,7 @@
         <v>396</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>703</v>
@@ -4387,10 +4434,10 @@
         <v>43522</v>
       </c>
       <c r="K101" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>97316</v>
       </c>
@@ -4407,7 +4454,7 @@
         <v>323</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G102">
         <v>1088</v>
@@ -4422,10 +4469,10 @@
         <v>43454</v>
       </c>
       <c r="K102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>97317</v>
       </c>
@@ -4442,7 +4489,7 @@
         <v>392</v>
       </c>
       <c r="F103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G103">
         <v>703</v>
@@ -4457,10 +4504,10 @@
         <v>43440</v>
       </c>
       <c r="K103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>97318</v>
       </c>
@@ -4477,7 +4524,7 @@
         <v>803</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>832</v>
@@ -4492,10 +4539,10 @@
         <v>43453</v>
       </c>
       <c r="K104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>97319</v>
       </c>
@@ -4512,7 +4559,7 @@
         <v>323</v>
       </c>
       <c r="F105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G105">
         <v>1317</v>
@@ -4527,10 +4574,10 @@
         <v>43446</v>
       </c>
       <c r="K105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>97320</v>
       </c>
@@ -4547,7 +4594,7 @@
         <v>689</v>
       </c>
       <c r="F106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G106">
         <v>849</v>
@@ -4562,10 +4609,10 @@
         <v>43441</v>
       </c>
       <c r="K106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>97321</v>
       </c>
@@ -4582,7 +4629,7 @@
         <v>393</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G107">
         <v>875</v>
@@ -4597,10 +4644,10 @@
         <v>43440</v>
       </c>
       <c r="K107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>97322</v>
       </c>
@@ -4617,7 +4664,7 @@
         <v>804</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G108">
         <v>832</v>
@@ -4632,10 +4679,10 @@
         <v>43454</v>
       </c>
       <c r="K108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>97323</v>
       </c>
@@ -4652,7 +4699,7 @@
         <v>690</v>
       </c>
       <c r="F109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G109">
         <v>849</v>
@@ -4667,10 +4714,10 @@
         <v>43441</v>
       </c>
       <c r="K109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>97324</v>
       </c>
@@ -4687,7 +4734,7 @@
         <v>664</v>
       </c>
       <c r="F110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G110">
         <v>647</v>
@@ -4702,10 +4749,10 @@
         <v>43460</v>
       </c>
       <c r="K110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>97326</v>
       </c>
@@ -4722,7 +4769,7 @@
         <v>553</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>841</v>
@@ -4737,10 +4784,10 @@
         <v>43451</v>
       </c>
       <c r="K111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>97327</v>
       </c>
@@ -4757,7 +4804,7 @@
         <v>323</v>
       </c>
       <c r="F112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G112">
         <v>698</v>
@@ -4772,10 +4819,10 @@
         <v>43446</v>
       </c>
       <c r="K112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>97328</v>
       </c>
@@ -4792,7 +4839,7 @@
         <v>323</v>
       </c>
       <c r="F113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G113">
         <v>567</v>
@@ -4807,10 +4854,10 @@
         <v>43539</v>
       </c>
       <c r="K113" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>97330</v>
       </c>
@@ -4827,7 +4874,7 @@
         <v>690</v>
       </c>
       <c r="F114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G114">
         <v>849</v>
@@ -4842,10 +4889,10 @@
         <v>43441</v>
       </c>
       <c r="K114" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>97331</v>
       </c>
@@ -4862,7 +4909,7 @@
         <v>803</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115">
         <v>550</v>
@@ -4877,10 +4924,10 @@
         <v>43440</v>
       </c>
       <c r="K115" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>97333</v>
       </c>
@@ -4897,7 +4944,7 @@
         <v>323</v>
       </c>
       <c r="F116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G116">
         <v>708</v>
@@ -4912,10 +4959,10 @@
         <v>43434</v>
       </c>
       <c r="K116" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>97334</v>
       </c>
@@ -4932,7 +4979,7 @@
         <v>795</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G117">
         <v>825</v>
@@ -4947,10 +4994,10 @@
         <v>43445</v>
       </c>
       <c r="K117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>97335</v>
       </c>
@@ -4967,7 +5014,7 @@
         <v>327</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G118">
         <v>383</v>
@@ -4982,10 +5029,10 @@
         <v>43439</v>
       </c>
       <c r="K118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>97336</v>
       </c>
@@ -5002,7 +5049,7 @@
         <v>323</v>
       </c>
       <c r="F119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G119">
         <v>567</v>
@@ -5017,10 +5064,10 @@
         <v>43537</v>
       </c>
       <c r="K119" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>97337</v>
       </c>
@@ -5037,7 +5084,7 @@
         <v>665</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G120">
         <v>646</v>
@@ -5052,10 +5099,10 @@
         <v>43584</v>
       </c>
       <c r="K120" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>97338</v>
       </c>
@@ -5072,7 +5119,7 @@
         <v>689</v>
       </c>
       <c r="F121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G121">
         <v>1179</v>
@@ -5087,10 +5134,10 @@
         <v>43441</v>
       </c>
       <c r="K121" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>97340</v>
       </c>
@@ -5107,7 +5154,7 @@
         <v>665</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G122">
         <v>647</v>
@@ -5122,10 +5169,10 @@
         <v>43451</v>
       </c>
       <c r="K122" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>97341</v>
       </c>
@@ -5142,7 +5189,7 @@
         <v>362</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>876</v>
@@ -5157,10 +5204,10 @@
         <v>43438</v>
       </c>
       <c r="K123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>97342</v>
       </c>
@@ -5177,7 +5224,7 @@
         <v>690</v>
       </c>
       <c r="F124" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G124">
         <v>849</v>
@@ -5192,10 +5239,10 @@
         <v>43444</v>
       </c>
       <c r="K124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>97343</v>
       </c>
@@ -5212,7 +5259,7 @@
         <v>363</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G125">
         <v>704</v>
@@ -5227,10 +5274,10 @@
         <v>43444</v>
       </c>
       <c r="K125" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>97344</v>
       </c>
@@ -5247,7 +5294,7 @@
         <v>323</v>
       </c>
       <c r="F126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G126">
         <v>380</v>
@@ -5262,10 +5309,10 @@
         <v>43445</v>
       </c>
       <c r="K126" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>97345</v>
       </c>
@@ -5282,7 +5329,7 @@
         <v>1078</v>
       </c>
       <c r="F127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G127">
         <v>621</v>
@@ -5297,10 +5344,10 @@
         <v>43447</v>
       </c>
       <c r="K127" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>97346</v>
       </c>
@@ -5317,7 +5364,7 @@
         <v>397</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G128">
         <v>388</v>
@@ -5332,10 +5379,10 @@
         <v>43439</v>
       </c>
       <c r="K128" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>97347</v>
       </c>
@@ -5352,7 +5399,7 @@
         <v>665</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G129">
         <v>643</v>
@@ -5367,10 +5414,10 @@
         <v>43434</v>
       </c>
       <c r="K129" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>97348</v>
       </c>
@@ -5387,7 +5434,7 @@
         <v>401</v>
       </c>
       <c r="F130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G130">
         <v>384</v>
@@ -5402,10 +5449,10 @@
         <v>43448</v>
       </c>
       <c r="K130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>97349</v>
       </c>
@@ -5422,7 +5469,7 @@
         <v>562</v>
       </c>
       <c r="F131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G131">
         <v>387</v>
@@ -5437,10 +5484,10 @@
         <v>43439</v>
       </c>
       <c r="K131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>97350</v>
       </c>
@@ -5457,7 +5504,7 @@
         <v>795</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G132">
         <v>824</v>
@@ -5472,10 +5519,10 @@
         <v>43440</v>
       </c>
       <c r="K132" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>97351</v>
       </c>
@@ -5492,7 +5539,7 @@
         <v>323</v>
       </c>
       <c r="F133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G133">
         <v>1175</v>
@@ -5507,10 +5554,10 @@
         <v>43451</v>
       </c>
       <c r="K133" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>97352</v>
       </c>
@@ -5527,7 +5574,7 @@
         <v>663</v>
       </c>
       <c r="F134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G134">
         <v>1317</v>
@@ -5542,10 +5589,10 @@
         <v>43507</v>
       </c>
       <c r="K134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>97353</v>
       </c>
@@ -5562,7 +5609,7 @@
         <v>396</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>876</v>
@@ -5577,10 +5624,10 @@
         <v>43452</v>
       </c>
       <c r="K135" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>97354</v>
       </c>
@@ -5597,7 +5644,7 @@
         <v>360</v>
       </c>
       <c r="F136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G136">
         <v>384</v>
@@ -5612,10 +5659,10 @@
         <v>43448</v>
       </c>
       <c r="K136" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>97355</v>
       </c>
@@ -5632,7 +5679,7 @@
         <v>407</v>
       </c>
       <c r="F137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G137">
         <v>453</v>
@@ -5647,10 +5694,10 @@
         <v>43441</v>
       </c>
       <c r="K137" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>97356</v>
       </c>
@@ -5667,7 +5714,7 @@
         <v>1078</v>
       </c>
       <c r="F138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G138">
         <v>621</v>
@@ -5682,10 +5729,10 @@
         <v>43453</v>
       </c>
       <c r="K138" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>97357</v>
       </c>
@@ -5702,7 +5749,7 @@
         <v>323</v>
       </c>
       <c r="F139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G139">
         <v>643</v>
@@ -5717,10 +5764,10 @@
         <v>43440</v>
       </c>
       <c r="K139" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>97358</v>
       </c>
@@ -5737,7 +5784,7 @@
         <v>1096</v>
       </c>
       <c r="F140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G140">
         <v>732</v>
@@ -5752,10 +5799,10 @@
         <v>43434</v>
       </c>
       <c r="K140" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>97359</v>
       </c>
@@ -5772,7 +5819,7 @@
         <v>663</v>
       </c>
       <c r="F141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G141">
         <v>647</v>
@@ -5787,10 +5834,10 @@
         <v>43438</v>
       </c>
       <c r="K141" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>97360</v>
       </c>
@@ -5807,7 +5854,7 @@
         <v>360</v>
       </c>
       <c r="F142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G142">
         <v>384</v>
@@ -5822,10 +5869,10 @@
         <v>43514</v>
       </c>
       <c r="K142" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>97361</v>
       </c>
@@ -5842,7 +5889,7 @@
         <v>553</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>383</v>
@@ -5857,10 +5904,10 @@
         <v>43460</v>
       </c>
       <c r="K143" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>97362</v>
       </c>
@@ -5877,7 +5924,7 @@
         <v>360</v>
       </c>
       <c r="F144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G144">
         <v>384</v>
@@ -5892,10 +5939,10 @@
         <v>43516</v>
       </c>
       <c r="K144" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>97363</v>
       </c>
@@ -5912,7 +5959,7 @@
         <v>360</v>
       </c>
       <c r="F145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G145">
         <v>384</v>
@@ -5927,10 +5974,10 @@
         <v>43516</v>
       </c>
       <c r="K145" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>97365</v>
       </c>
@@ -5947,7 +5994,7 @@
         <v>665</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G146">
         <v>1317</v>
@@ -5962,10 +6009,10 @@
         <v>43434</v>
       </c>
       <c r="K146" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>97366</v>
       </c>
@@ -5982,7 +6029,7 @@
         <v>323</v>
       </c>
       <c r="F147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G147">
         <v>567</v>
@@ -5997,10 +6044,10 @@
         <v>43453</v>
       </c>
       <c r="K147" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>97367</v>
       </c>
@@ -6017,7 +6064,7 @@
         <v>327</v>
       </c>
       <c r="F148" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G148">
         <v>1084</v>
@@ -6032,10 +6079,10 @@
         <v>43434</v>
       </c>
       <c r="K148" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>97368</v>
       </c>
@@ -6052,7 +6099,7 @@
         <v>323</v>
       </c>
       <c r="F149" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G149">
         <v>648</v>
@@ -6067,10 +6114,10 @@
         <v>43539</v>
       </c>
       <c r="K149" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>97369</v>
       </c>
@@ -6087,7 +6134,7 @@
         <v>803</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G150">
         <v>842</v>
@@ -6102,10 +6149,10 @@
         <v>43432</v>
       </c>
       <c r="K150" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>97370</v>
       </c>
@@ -6122,7 +6169,7 @@
         <v>360</v>
       </c>
       <c r="F151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G151">
         <v>386</v>
@@ -6137,10 +6184,10 @@
         <v>43441</v>
       </c>
       <c r="K151" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>97371</v>
       </c>
@@ -6157,7 +6204,7 @@
         <v>323</v>
       </c>
       <c r="F152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G152">
         <v>564</v>
@@ -6172,65 +6219,65 @@
         <v>43438</v>
       </c>
       <c r="K152" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>97372</v>
+        <v>97373</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C153">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D153">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="E153">
+        <v>562</v>
+      </c>
+      <c r="F153" t="s">
+        <v>97</v>
+      </c>
+      <c r="G153">
+        <v>731</v>
+      </c>
+      <c r="H153" s="2">
+        <v>43432</v>
+      </c>
+      <c r="I153">
+        <v>513</v>
+      </c>
+      <c r="J153" s="2">
+        <v>43441</v>
+      </c>
+      <c r="K153" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>97374</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>828</v>
+      </c>
+      <c r="D154">
+        <v>348</v>
+      </c>
+      <c r="E154">
         <v>323</v>
       </c>
-      <c r="F153" t="s">
-        <v>104</v>
-      </c>
-      <c r="G153">
-        <v>564</v>
-      </c>
-      <c r="H153" s="2">
-        <v>43432</v>
-      </c>
-      <c r="I153">
-        <v>514</v>
-      </c>
-      <c r="J153" s="2">
-        <v>43435</v>
-      </c>
-      <c r="K153" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>97373</v>
-      </c>
-      <c r="B154" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154">
-        <v>838</v>
-      </c>
-      <c r="D154">
-        <v>438</v>
-      </c>
-      <c r="E154">
-        <v>562</v>
-      </c>
       <c r="F154" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G154">
-        <v>731</v>
+        <v>355</v>
       </c>
       <c r="H154" s="2">
         <v>43432</v>
@@ -6239,45 +6286,10 @@
         <v>513</v>
       </c>
       <c r="J154" s="2">
-        <v>43441</v>
+        <v>43445</v>
       </c>
       <c r="K154" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>97374</v>
-      </c>
-      <c r="B155" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155">
-        <v>828</v>
-      </c>
-      <c r="D155">
-        <v>348</v>
-      </c>
-      <c r="E155">
-        <v>323</v>
-      </c>
-      <c r="F155" t="s">
-        <v>105</v>
-      </c>
-      <c r="G155">
-        <v>355</v>
-      </c>
-      <c r="H155" s="2">
-        <v>43432</v>
-      </c>
-      <c r="I155">
-        <v>513</v>
-      </c>
-      <c r="J155" s="2">
-        <v>43445</v>
-      </c>
-      <c r="K155" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
